--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Catalogos/Molinos.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Catalogos/Molinos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C85C8B-F6F2-41BD-A931-43F337B8C02C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A83F23-1500-4806-BC31-B0104FCB353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7CB5CF0-0CC3-41AE-887E-E42A35BB26A3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>Modelo</t>
   </si>
@@ -92,12 +92,6 @@
     <t>R20-AT</t>
   </si>
   <si>
-    <t>Trapiche N 16</t>
-  </si>
-  <si>
-    <t>Guarapero N 18</t>
-  </si>
-  <si>
     <t>Trapiche N 14</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
   </si>
   <si>
     <t>Trapiche 10 1-2</t>
-  </si>
-  <si>
-    <t>Trapiche JM-2</t>
   </si>
   <si>
     <t>HNReliable</t>
@@ -557,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BE17DE-6B86-41C6-B305-F04DE90BFC6B}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L1048576"/>
+      <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -599,68 +590,68 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D2" s="1">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="7">
-        <v>2650000</v>
+        <v>37</v>
+      </c>
+      <c r="G2" s="8">
+        <v>8300000</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2950000</v>
+        <v>38</v>
+      </c>
+      <c r="G3" s="8">
+        <v>10000000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G4" s="8">
         <v>10000000</v>
@@ -668,25 +659,25 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1">
+        <v>900</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1">
-        <v>500</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="G5" s="8">
-        <v>8300000</v>
+        <v>11700000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -694,91 +685,91 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>900</v>
+      </c>
+      <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <v>500</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" s="8">
-        <v>10000000</v>
+        <v>11000000</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="8">
-        <v>10000000</v>
+        <v>11700000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="1">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
         <v>8</v>
       </c>
-      <c r="E8" s="1">
-        <v>7.5</v>
-      </c>
       <c r="F8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="8">
-        <v>11700000</v>
+        <v>37</v>
+      </c>
+      <c r="G8" s="7">
+        <v>12000000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="D9" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G9" s="8">
-        <v>11000000</v>
+        <v>12700000</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -786,56 +777,56 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8">
-        <v>11700000</v>
+        <v>12700000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D11" s="1">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1">
-        <v>8</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="G11" s="7">
-        <v>12000000</v>
+        <v>17500000</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="D12" s="1">
         <v>16</v>
@@ -844,10 +835,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="8">
-        <v>12700000</v>
+        <v>38</v>
+      </c>
+      <c r="G12" s="7">
+        <v>13500000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -855,30 +846,30 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="D13" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="8">
-        <v>12700000</v>
+        <v>38</v>
+      </c>
+      <c r="G13" s="7">
+        <v>14300000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <v>1500</v>
@@ -887,36 +878,36 @@
         <v>16</v>
       </c>
       <c r="E14" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="7">
-        <v>17500000</v>
+        <v>14700000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D15" s="1">
         <v>16</v>
       </c>
       <c r="E15" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7">
-        <v>13500000</v>
+        <v>17500000</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,56 +915,56 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="D16" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G16" s="7">
-        <v>14300000</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D17" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G17" s="7">
-        <v>14700000</v>
+        <v>19700000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="D18" s="1">
         <v>16</v>
@@ -982,7 +973,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18" s="7">
         <v>17500000</v>
@@ -990,94 +981,94 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C19" s="1">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="D19" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7">
-        <v>16000000</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C20" s="1">
         <v>2000</v>
       </c>
       <c r="D20" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G20" s="7">
-        <v>19700000</v>
+        <v>17500000</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1">
         <v>2000</v>
       </c>
       <c r="D21" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7">
-        <v>17500000</v>
+        <v>18100000</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2300</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1">
+        <v>15</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1">
-        <v>10</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="G22" s="7">
-        <v>17000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,198 +1076,126 @@
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2300</v>
+      </c>
+      <c r="D23" s="2">
+        <v>30</v>
+      </c>
+      <c r="E23" s="2">
         <v>25</v>
       </c>
-      <c r="E23" s="1">
-        <v>20</v>
-      </c>
       <c r="F23" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7">
-        <v>17500000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="D24" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G24" s="7">
-        <v>18100000</v>
+        <v>62000000</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="D25" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E25" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="7">
-        <v>60000000</v>
+        <v>62000000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2300</v>
-      </c>
-      <c r="D26" s="2">
         <v>30</v>
       </c>
-      <c r="E26" s="2">
-        <v>25</v>
+      <c r="C26" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>13</v>
+      </c>
+      <c r="E26" s="1">
+        <v>14</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G26" s="7">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2600</v>
-      </c>
-      <c r="D27" s="1">
-        <v>24</v>
-      </c>
-      <c r="E27" s="1">
-        <v>30</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="7">
-        <v>62000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D28" s="1">
-        <v>40</v>
-      </c>
-      <c r="E28" s="1">
-        <v>30</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="7">
-        <v>62000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="1">
-        <v>4000</v>
-      </c>
-      <c r="D29" s="1">
-        <v>13</v>
-      </c>
-      <c r="E29" s="1">
-        <v>14</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="7">
         <v>32000000</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G29">
-    <sortCondition ref="C2:C29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
+    <sortCondition ref="C2:C26"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F28" r:id="rId1" display="www.metalagro.com.co" xr:uid="{CAE75737-CFD6-426C-A12A-7A38FE60C0BC}"/>
-    <hyperlink ref="F26" r:id="rId2" display="www.metalagro.com.co" xr:uid="{3A6F820B-8C54-4423-8EFB-65D36C3F4BF4}"/>
-    <hyperlink ref="F23" r:id="rId3" display="www.metalagro.com.co" xr:uid="{98F39B90-4B0F-4C51-8742-9B6FB7C287A4}"/>
-    <hyperlink ref="F24" r:id="rId4" display="www.metalagro.com.co" xr:uid="{16DDCC9E-97C8-44F4-921B-761B8A3D5E7C}"/>
-    <hyperlink ref="F19" r:id="rId5" display="www.metalagro.com.co" xr:uid="{FA4997C0-0607-4B62-96E2-0A893ADF600C}"/>
-    <hyperlink ref="F17" r:id="rId6" display="www.metalagro.com.co" xr:uid="{4B22F01C-62B7-4B15-A042-A39E2BD5D32B}"/>
-    <hyperlink ref="F16" r:id="rId7" display="www.metalagro.com.co" xr:uid="{F32518D9-BCF4-433E-B4AE-C05DD9EDD170}"/>
-    <hyperlink ref="F15" r:id="rId8" display="www.metalagro.com.co" xr:uid="{F247792F-4F9D-401D-94D1-CB8FC5AEED96}"/>
-    <hyperlink ref="F13" r:id="rId9" display="www.metalagro.com.co" xr:uid="{DE4119CB-3706-4A35-A548-6B3141CB6454}"/>
-    <hyperlink ref="F10" r:id="rId10" display="www.metalagro.com.co" xr:uid="{882E176C-F4C0-4C0B-ACBB-C1340EBA93B9}"/>
-    <hyperlink ref="F9" r:id="rId11" display="www.metalagro.com.co" xr:uid="{E9DF98AA-9AE6-497D-A58E-6C8FC17788CC}"/>
-    <hyperlink ref="F29" r:id="rId12" display="www.mrcfoodmachine.com" xr:uid="{B5900C36-5D47-4095-9E7E-512E03D97B42}"/>
-    <hyperlink ref="F22" r:id="rId13" display="www.mrcfoodmachine.com" xr:uid="{17FA07F7-7F3C-4B5B-BFAA-56E2D5DDB0D4}"/>
-    <hyperlink ref="F11" r:id="rId14" display="www.mrcfoodmachine.com" xr:uid="{8CF555F8-0AD4-4F77-AD2A-79D349198B35}"/>
-    <hyperlink ref="F27" r:id="rId15" display="www.jmestrada.com" xr:uid="{988DF27B-7431-44D8-99CE-B36252BCF37C}"/>
-    <hyperlink ref="F25" r:id="rId16" display="www.jmestrada.com" xr:uid="{564BD895-C557-4017-A756-01DD89FAE1F9}"/>
-    <hyperlink ref="F21" r:id="rId17" display="www.jmestrada.com" xr:uid="{AD16B445-B41C-4500-94FD-EE2F38821ACD}"/>
-    <hyperlink ref="F18" r:id="rId18" display="www.jmestrada.com" xr:uid="{5EF7D937-4F93-4A7F-AEE3-95BD581419E1}"/>
-    <hyperlink ref="F14" r:id="rId19" display="www.jmestrada.com" xr:uid="{07C39D65-E054-4575-843C-B82299431311}"/>
-    <hyperlink ref="F12" r:id="rId20" display="www.jmestrada.com" xr:uid="{AD4256C1-5938-4870-AD8A-16A2C3D03339}"/>
-    <hyperlink ref="F8" r:id="rId21" display="www.jmestrada.com" xr:uid="{CBDB0B6F-F862-44DB-A58E-032AF54F042F}"/>
-    <hyperlink ref="F7" r:id="rId22" display="www.jmestrada.com" xr:uid="{DE893F8F-B9EE-492F-92CC-AA616CCF63E0}"/>
-    <hyperlink ref="F4" r:id="rId23" display="www.jmestrada.com" xr:uid="{61E83F6A-77D2-4E8D-BE07-92BD34259722}"/>
-    <hyperlink ref="F3" r:id="rId24" display="www.jmestrada.com" xr:uid="{17753285-0BBE-427A-9E4C-F5572CFE87A9}"/>
-    <hyperlink ref="F5" r:id="rId25" display="www.mrcfoodmachine.com" xr:uid="{C6F17955-122F-4B32-BA3A-D965FCC645B4}"/>
-    <hyperlink ref="F20" r:id="rId26" display="www.hnreliable.com" xr:uid="{3938D82F-5107-4AC3-B279-47826930970B}"/>
-    <hyperlink ref="F6" r:id="rId27" display="www.metalagro.com.co" xr:uid="{BF6C4C42-318F-4B6E-9B05-30297EF8CD12}"/>
-    <hyperlink ref="F2" r:id="rId28" display="www.jmestrada.com" xr:uid="{5722BA64-5B3B-4567-8857-8A9D8C545ED6}"/>
+    <hyperlink ref="F25" r:id="rId1" display="www.metalagro.com.co" xr:uid="{CAE75737-CFD6-426C-A12A-7A38FE60C0BC}"/>
+    <hyperlink ref="F23" r:id="rId2" display="www.metalagro.com.co" xr:uid="{3A6F820B-8C54-4423-8EFB-65D36C3F4BF4}"/>
+    <hyperlink ref="F20" r:id="rId3" display="www.metalagro.com.co" xr:uid="{98F39B90-4B0F-4C51-8742-9B6FB7C287A4}"/>
+    <hyperlink ref="F21" r:id="rId4" display="www.metalagro.com.co" xr:uid="{16DDCC9E-97C8-44F4-921B-761B8A3D5E7C}"/>
+    <hyperlink ref="F16" r:id="rId5" display="www.metalagro.com.co" xr:uid="{FA4997C0-0607-4B62-96E2-0A893ADF600C}"/>
+    <hyperlink ref="F14" r:id="rId6" display="www.metalagro.com.co" xr:uid="{4B22F01C-62B7-4B15-A042-A39E2BD5D32B}"/>
+    <hyperlink ref="F13" r:id="rId7" display="www.metalagro.com.co" xr:uid="{F32518D9-BCF4-433E-B4AE-C05DD9EDD170}"/>
+    <hyperlink ref="F12" r:id="rId8" display="www.metalagro.com.co" xr:uid="{F247792F-4F9D-401D-94D1-CB8FC5AEED96}"/>
+    <hyperlink ref="F10" r:id="rId9" display="www.metalagro.com.co" xr:uid="{DE4119CB-3706-4A35-A548-6B3141CB6454}"/>
+    <hyperlink ref="F7" r:id="rId10" display="www.metalagro.com.co" xr:uid="{882E176C-F4C0-4C0B-ACBB-C1340EBA93B9}"/>
+    <hyperlink ref="F6" r:id="rId11" display="www.metalagro.com.co" xr:uid="{E9DF98AA-9AE6-497D-A58E-6C8FC17788CC}"/>
+    <hyperlink ref="F26" r:id="rId12" display="www.mrcfoodmachine.com" xr:uid="{B5900C36-5D47-4095-9E7E-512E03D97B42}"/>
+    <hyperlink ref="F19" r:id="rId13" display="www.mrcfoodmachine.com" xr:uid="{17FA07F7-7F3C-4B5B-BFAA-56E2D5DDB0D4}"/>
+    <hyperlink ref="F8" r:id="rId14" display="www.mrcfoodmachine.com" xr:uid="{8CF555F8-0AD4-4F77-AD2A-79D349198B35}"/>
+    <hyperlink ref="F24" r:id="rId15" display="www.jmestrada.com" xr:uid="{988DF27B-7431-44D8-99CE-B36252BCF37C}"/>
+    <hyperlink ref="F22" r:id="rId16" display="www.jmestrada.com" xr:uid="{564BD895-C557-4017-A756-01DD89FAE1F9}"/>
+    <hyperlink ref="F18" r:id="rId17" display="www.jmestrada.com" xr:uid="{AD16B445-B41C-4500-94FD-EE2F38821ACD}"/>
+    <hyperlink ref="F15" r:id="rId18" display="www.jmestrada.com" xr:uid="{5EF7D937-4F93-4A7F-AEE3-95BD581419E1}"/>
+    <hyperlink ref="F11" r:id="rId19" display="www.jmestrada.com" xr:uid="{07C39D65-E054-4575-843C-B82299431311}"/>
+    <hyperlink ref="F9" r:id="rId20" display="www.jmestrada.com" xr:uid="{AD4256C1-5938-4870-AD8A-16A2C3D03339}"/>
+    <hyperlink ref="F5" r:id="rId21" display="www.jmestrada.com" xr:uid="{CBDB0B6F-F862-44DB-A58E-032AF54F042F}"/>
+    <hyperlink ref="F4" r:id="rId22" display="www.jmestrada.com" xr:uid="{DE893F8F-B9EE-492F-92CC-AA616CCF63E0}"/>
+    <hyperlink ref="F2" r:id="rId23" display="www.mrcfoodmachine.com" xr:uid="{C6F17955-122F-4B32-BA3A-D965FCC645B4}"/>
+    <hyperlink ref="F17" r:id="rId24" display="www.hnreliable.com" xr:uid="{3938D82F-5107-4AC3-B279-47826930970B}"/>
+    <hyperlink ref="F3" r:id="rId25" display="www.metalagro.com.co" xr:uid="{BF6C4C42-318F-4B6E-9B05-30297EF8CD12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>